--- a/工资发放表/工资表 - 芒海小学.xlsx
+++ b/工资发放表/工资表 - 芒海小学.xlsx
@@ -8,23 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\芒海小学\记帐\工资发放表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E94062B0-4263-4FFB-85B6-DD3DD3A7F4A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04776190-7630-46A1-8C61-DD210292A65A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="模板" sheetId="1" r:id="rId1"/>
+    <sheet name="4月" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">模板!$A$1:$I$12</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="43">
   <si>
     <t>序号</t>
   </si>
@@ -160,6 +160,14 @@
   </si>
   <si>
     <t>南山镇芒海小学2023年保安工资发放表</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>拾  万  仟  佰  拾  元  角  分</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">单位：徐闻县芒海小学                                      </t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -374,7 +382,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -402,34 +410,25 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -441,16 +440,19 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -459,22 +461,10 @@
     <xf numFmtId="49" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -781,10 +771,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -798,32 +788,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="27.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
     </row>
     <row r="2" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="19" t="s">
+      <c r="A2" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
     </row>
     <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -841,7 +831,7 @@
       <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="10" t="s">
         <v>30</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -864,13 +854,13 @@
       <c r="C4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="6" t="s">
         <v>26</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="11" t="s">
         <v>32</v>
       </c>
       <c r="G4" s="4">
@@ -897,7 +887,7 @@
       <c r="E5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="11" t="s">
         <v>32</v>
       </c>
       <c r="G5" s="4">
@@ -924,7 +914,7 @@
       <c r="E6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="11" t="s">
         <v>31</v>
       </c>
       <c r="G6" s="4">
@@ -951,7 +941,7 @@
       <c r="E7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="11" t="s">
         <v>31</v>
       </c>
       <c r="G7" s="4">
@@ -978,7 +968,7 @@
       <c r="E8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="11" t="s">
         <v>31</v>
       </c>
       <c r="G8" s="4">
@@ -1005,7 +995,7 @@
       <c r="E9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="11" t="s">
         <v>31</v>
       </c>
       <c r="G9" s="4">
@@ -1032,7 +1022,7 @@
       <c r="E10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="11" t="s">
         <v>31</v>
       </c>
       <c r="G10" s="4">
@@ -1047,25 +1037,25 @@
       <c r="A11" s="4">
         <v>8</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="6" t="s">
         <v>29</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="11" t="s">
         <v>31</v>
       </c>
       <c r="G11" s="4">
         <v>2500</v>
       </c>
-      <c r="H11" s="11"/>
+      <c r="H11" s="4"/>
       <c r="I11" s="4" t="s">
         <v>9</v>
       </c>
@@ -1074,20 +1064,36 @@
       <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="24"/>
+      <c r="B12" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
       <c r="G12" s="8">
         <f>SUM(G4:G11)</f>
         <v>20000</v>
       </c>
-      <c r="H12" s="17"/>
-      <c r="I12" s="18"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="24"/>
+      <c r="F13" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="25"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="F13:G13"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="H12:I12"/>
     <mergeCell ref="G2:I2"/>
@@ -1096,7 +1102,7 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I11" xr:uid="{9B8B44E8-E38A-4C2A-AEBC-151A809B14F9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I11" xr:uid="{9E61B51D-725D-4574-AA82-1B491ED99647}">
       <formula1>"代课,工勤,保安"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1110,7 +1116,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{146BDDF2-8194-48B4-849B-8A48C7DC84A6}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
@@ -1125,32 +1131,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="27.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
     </row>
     <row r="2" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="19" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
     </row>
     <row r="3" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1168,7 +1174,7 @@
       <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="10" t="s">
         <v>30</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -1188,16 +1194,16 @@
       <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="12" t="s">
         <v>35</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="11" t="s">
         <v>36</v>
       </c>
       <c r="G4" s="4">
@@ -1212,38 +1218,38 @@
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="31"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="21"/>
       <c r="G5" s="4">
         <v>2500</v>
       </c>
-      <c r="H5" s="32"/>
-      <c r="I5" s="33"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="23"/>
     </row>
     <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="F6" s="27" t="s">
+      <c r="B6" s="24"/>
+      <c r="F6" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="27"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="F6:G6"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="H5:I5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="1">

--- a/工资发放表/工资表 - 芒海小学.xlsx
+++ b/工资发放表/工资表 - 芒海小学.xlsx
@@ -1,25 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\芒海小学\记帐\工资发放表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\芒海小学\记帐\工资发放表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04776190-7630-46A1-8C61-DD210292A65A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15FF46E-320A-4649-B18E-61E68841DF2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="模板" sheetId="1" r:id="rId1"/>
-    <sheet name="4月" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="4月" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">模板!$A$1:$I$12</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -425,10 +439,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -440,6 +463,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -453,18 +479,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -773,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection sqref="A1:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -788,32 +802,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="27.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
     </row>
     <row r="2" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
       <c r="F2" s="9"/>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1064,29 +1078,29 @@
       <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
       <c r="G12" s="8">
         <f>SUM(G4:G11)</f>
         <v>20000</v>
       </c>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="F13" s="25" t="s">
+      <c r="B13" s="14"/>
+      <c r="F13" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="25"/>
+      <c r="G13" s="15"/>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
     </row>
@@ -1113,6 +1127,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBFFC828-13F0-461E-980D-CF7DFAD9FCE4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{146BDDF2-8194-48B4-849B-8A48C7DC84A6}">
   <dimension ref="A1:I6"/>
   <sheetViews>
@@ -1131,32 +1160,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="27.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
     </row>
     <row r="2" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
       <c r="F2" s="9"/>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1218,26 +1247,26 @@
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="21"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="25"/>
       <c r="G5" s="4">
         <v>2500</v>
       </c>
-      <c r="H5" s="22"/>
-      <c r="I5" s="23"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="27"/>
     </row>
     <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="F6" s="25" t="s">
+      <c r="B6" s="14"/>
+      <c r="F6" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="25"/>
+      <c r="G6" s="15"/>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
     </row>

--- a/工资发放表/工资表 - 芒海小学.xlsx
+++ b/工资发放表/工资表 - 芒海小学.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\芒海小学\记帐\工资发放表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15FF46E-320A-4649-B18E-61E68841DF2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31480E72-8EE4-4449-8C9D-959FE4D5747D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="模板" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
-    <sheet name="4月" sheetId="2" r:id="rId3"/>
+    <sheet name="4月" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">模板!$A$1:$I$12</definedName>
@@ -29,8 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -157,10 +154,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>4月</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>保安</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -182,6 +175,10 @@
   </si>
   <si>
     <t xml:space="preserve">单位：徐闻县芒海小学                                      </t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -787,7 +784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection sqref="A1:I13"/>
     </sheetView>
   </sheetViews>
@@ -816,7 +813,7 @@
     </row>
     <row r="2" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -1079,7 +1076,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
@@ -1094,11 +1091,11 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" s="14"/>
       <c r="F13" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G13" s="15"/>
       <c r="H13" s="13"/>
@@ -1127,26 +1124,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBFFC828-13F0-461E-980D-CF7DFAD9FCE4}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{146BDDF2-8194-48B4-849B-8A48C7DC84A6}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1161,7 +1143,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="27.5" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -1233,14 +1215,14 @@
         <v>8</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G4" s="4">
         <v>2500</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1260,11 +1242,11 @@
     </row>
     <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" s="14"/>
       <c r="F6" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G6" s="15"/>
       <c r="H6" s="13"/>
